--- a/outputs-r202/g__Ruminococcus_D.xlsx
+++ b/outputs-r202/g__Ruminococcus_D.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -761,6 +766,11 @@
           <t>s__Ruminococcus_D sp900314975</t>
         </is>
       </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_D sp900314975</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -887,6 +897,11 @@
           <t>s__Ruminococcus_D sp900319075</t>
         </is>
       </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_D sp900319075</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1013,6 +1028,11 @@
           <t>s__Ruminococcus_D sp900319075</t>
         </is>
       </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_D sp900319075</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1135,6 +1155,11 @@
         <v>0.9953000083331318</v>
       </c>
       <c r="AN5" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_D sp900319075</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>s__Ruminococcus_D sp900319075</t>
         </is>
